--- a/material.xlsx
+++ b/material.xlsx
@@ -773,7 +773,7 @@
         <v>2502</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -806,7 +806,7 @@
         <v>69</v>
       </c>
       <c r="U6">
-        <v>73440</v>
+        <v>44880</v>
       </c>
       <c r="X6" s="1">
         <v>45720</v>

--- a/material.xlsx
+++ b/material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107" count="225">
   <si>
     <t>po_number</t>
   </si>
@@ -199,33 +199,6 @@
     <t>40'</t>
   </si>
   <si>
-    <t>25-PR-129</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>A992</t>
-  </si>
-  <si>
-    <t>W 21x44</t>
-  </si>
-  <si>
-    <t>60'</t>
-  </si>
-  <si>
-    <t>44.0000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>Brown-Strauss</t>
-  </si>
-  <si>
-    <t>W 24x68</t>
-  </si>
-  <si>
-    <t>68.0000*(1+(0.0000/12))</t>
-  </si>
-  <si>
     <t>25-PR-132</t>
   </si>
   <si>
@@ -247,16 +220,61 @@
     <t>46'</t>
   </si>
   <si>
-    <t>25-PR-133</t>
+    <t>25-PR-136</t>
   </si>
   <si>
     <t>STK</t>
   </si>
   <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>A529-50</t>
+  </si>
+  <si>
+    <t>FB 3/8x10</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>0.3750*(10.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>Intsel Steel West, LLC</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>A529-50</t>
+    <t>L 3x2x1/4</t>
+  </si>
+  <si>
+    <t>4.1000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>25-PR-139</t>
+  </si>
+  <si>
+    <t>L 2 1/2x2 1/2x1/4</t>
+  </si>
+  <si>
+    <t>25-PR-142</t>
+  </si>
+  <si>
+    <t>A36-36</t>
+  </si>
+  <si>
+    <t>L 4x3x1/4</t>
+  </si>
+  <si>
+    <t>5.8000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>L 4x3 1/2x3/8</t>
+  </si>
+  <si>
+    <t>9.1000*(1+(0.0000/12))</t>
   </si>
   <si>
     <t>L 4x4x3/8</t>
@@ -265,7 +283,58 @@
     <t>9.8000*(1+(0.0000/12))</t>
   </si>
   <si>
-    <t>Intsel Steel West, LLC</t>
+    <t>L 6x4x3/8</t>
+  </si>
+  <si>
+    <t>12.3000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>FB 3/8x9</t>
+  </si>
+  <si>
+    <t>0.3750*(9.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>25-PR-143</t>
+  </si>
+  <si>
+    <t>FB 5/8x4</t>
+  </si>
+  <si>
+    <t>0.6250*(4.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>A572-50</t>
+  </si>
+  <si>
+    <t>PL 3/8x96</t>
+  </si>
+  <si>
+    <t>240"</t>
+  </si>
+  <si>
+    <t>0.3750*(96.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>PL 5/8x96</t>
+  </si>
+  <si>
+    <t>0.6250*(96.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>PL 7/8x96</t>
+  </si>
+  <si>
+    <t>0.8750*(96.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>PL 1x96</t>
+  </si>
+  <si>
+    <t>1.0000*(96.0000)*((1*12)+0.0000)*.2836</t>
   </si>
 </sst>
 </file>
@@ -366,7 +435,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AW12"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -708,55 +777,58 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2502</v>
+        <v>2258</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>0.375</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="J5">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>44</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>65</v>
       </c>
-      <c r="P5">
-        <v>60</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="U5">
+        <v>1349.25</v>
+      </c>
+      <c r="W5" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X5" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA5" t="s">
         <v>66</v>
-      </c>
-      <c r="U5">
-        <v>36960</v>
-      </c>
-      <c r="X5" s="1">
-        <v>45720</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>45712</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -767,69 +839,72 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2502</v>
+        <v>2258</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>0.375</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>62</v>
       </c>
-      <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>68</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>63</v>
       </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6">
+        <v>35</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>65</v>
       </c>
-      <c r="P6">
-        <v>60</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>69</v>
-      </c>
       <c r="U6">
-        <v>44880</v>
+        <v>1349.25</v>
+      </c>
+      <c r="W6" s="1">
+        <v>45722</v>
       </c>
       <c r="X6" s="1">
-        <v>45720</v>
+        <v>45754</v>
       </c>
       <c r="Y6" s="1">
-        <v>45712</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>67</v>
+        <v>45713</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -847,25 +922,25 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U7">
-        <v>1349.25</v>
+        <v>1773.3</v>
       </c>
       <c r="W7" s="1">
         <v>45722</v>
@@ -877,21 +952,21 @@
         <v>45713</v>
       </c>
       <c r="AA7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -909,25 +984,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U8">
-        <v>1349.25</v>
+        <v>1773.3</v>
       </c>
       <c r="W8" s="1">
         <v>45722</v>
@@ -939,24 +1014,24 @@
         <v>45713</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2262</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
@@ -971,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P9">
         <v>46</v>
@@ -986,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U9">
-        <v>1773.3</v>
+        <v>3546.6</v>
       </c>
       <c r="W9" s="1">
         <v>45722</v>
@@ -1001,33 +1076,33 @@
         <v>45713</v>
       </c>
       <c r="AA9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>2262</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
       <c r="J10">
+        <v>0.375</v>
+      </c>
+      <c r="K10">
         <v>10</v>
-      </c>
-      <c r="K10">
-        <v>0.375</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1039,10 +1114,10 @@
         <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P10">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1051,86 +1126,80 @@
         <v>74</v>
       </c>
       <c r="U10">
-        <v>1773.3</v>
-      </c>
-      <c r="W10" s="1">
-        <v>45722</v>
+        <v>765.72</v>
       </c>
       <c r="X10" s="1">
-        <v>45754</v>
+        <v>45719</v>
       </c>
       <c r="Y10" s="1">
-        <v>45713</v>
-      </c>
-      <c r="AA10" t="s">
+        <v>45714</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2262</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>0.375</v>
-      </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" t="s">
         <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U11">
-        <v>3546.6</v>
-      </c>
-      <c r="W11" s="1">
-        <v>45722</v>
+        <v>82</v>
       </c>
       <c r="X11" s="1">
-        <v>45754</v>
+        <v>45719</v>
       </c>
       <c r="Y11" s="1">
-        <v>45713</v>
-      </c>
-      <c r="AA11" t="s">
+        <v>45714</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1139,28 +1208,28 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
         <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>81</v>
       </c>
       <c r="O12" t="s">
         <v>60</v>
@@ -1172,19 +1241,727 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12">
+        <v>1640</v>
+      </c>
+      <c r="X12" s="1">
+        <v>45719</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45715</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13" t="s">
         <v>82</v>
       </c>
-      <c r="U12">
-        <v>5880</v>
-      </c>
-      <c r="X12" s="1">
-        <v>45714</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>45713</v>
-      </c>
-      <c r="AA12" s="2" t="s">
+      <c r="N13" t="s">
         <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13">
+        <v>1276</v>
+      </c>
+      <c r="X13" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>3.5</v>
+      </c>
+      <c r="L14">
+        <v>0.375</v>
+      </c>
+      <c r="M14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14">
+        <v>182</v>
+      </c>
+      <c r="X14" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15">
+        <v>0.375</v>
+      </c>
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15">
+        <v>364</v>
+      </c>
+      <c r="X15" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>0.375</v>
+      </c>
+      <c r="M16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16">
+        <v>392</v>
+      </c>
+      <c r="X16" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17">
+        <v>492</v>
+      </c>
+      <c r="X17" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0.375</v>
+      </c>
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>40</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18">
+        <v>984</v>
+      </c>
+      <c r="X18" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>0.375</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19">
+        <v>689.148</v>
+      </c>
+      <c r="X19" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>0.625</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20">
+        <v>170.16</v>
+      </c>
+      <c r="X20" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45719</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21">
+        <v>0.375</v>
+      </c>
+      <c r="K21">
+        <v>96</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>240</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+      <c r="U21">
+        <v>4900.608</v>
+      </c>
+      <c r="X21" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45719</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22">
+        <v>0.625</v>
+      </c>
+      <c r="K22">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>240</v>
+      </c>
+      <c r="R22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22">
+        <v>4083.84</v>
+      </c>
+      <c r="X22" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45719</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23">
+        <v>0.875</v>
+      </c>
+      <c r="K23">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>240</v>
+      </c>
+      <c r="R23" t="s">
+        <v>104</v>
+      </c>
+      <c r="U23">
+        <v>11434.752</v>
+      </c>
+      <c r="X23" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45719</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>96</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>240</v>
+      </c>
+      <c r="R24" t="s">
+        <v>106</v>
+      </c>
+      <c r="U24">
+        <v>6534.144</v>
+      </c>
+      <c r="X24" s="1">
+        <v>45721</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45719</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/material.xlsx
+++ b/material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100" count="198">
   <si>
     <t>po_number</t>
   </si>
@@ -184,124 +184,112 @@
     <t>PDM Steel Service Centers</t>
   </si>
   <si>
-    <t>25-PR-112</t>
-  </si>
-  <si>
-    <t>HSS 4x2.5x1/4</t>
-  </si>
-  <si>
-    <t>9.6300*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>Totten Tubes</t>
+    <t>25-PR-132</t>
+  </si>
+  <si>
+    <t>A500-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSS 10.000x0.375 </t>
+  </si>
+  <si>
+    <t>35'</t>
+  </si>
+  <si>
+    <t>38.5500*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>Tubular Steel INC.</t>
+  </si>
+  <si>
+    <t>46'</t>
+  </si>
+  <si>
+    <t>25-PR-142</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A36-36</t>
+  </si>
+  <si>
+    <t>L 4x3 1/2x3/8</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>9.1000*(1+(0.0000/12))</t>
   </si>
   <si>
     <t>40'</t>
   </si>
   <si>
-    <t>25-PR-132</t>
-  </si>
-  <si>
-    <t>A500-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSS 10.000x0.375 </t>
-  </si>
-  <si>
-    <t>35'</t>
-  </si>
-  <si>
-    <t>38.5500*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>Tubular Steel INC.</t>
-  </si>
-  <si>
-    <t>46'</t>
-  </si>
-  <si>
-    <t>25-PR-136</t>
-  </si>
-  <si>
-    <t>STK</t>
+    <t>25-PR-147</t>
+  </si>
+  <si>
+    <t>L 3x2x1/4</t>
+  </si>
+  <si>
+    <t>4.1000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>25-PR-148</t>
+  </si>
+  <si>
+    <t>HSS 4x4x3/8</t>
+  </si>
+  <si>
+    <t>32'</t>
+  </si>
+  <si>
+    <t>19.8200*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>Intsel Steel West, LLC</t>
+  </si>
+  <si>
+    <t>HSS 5x5x1/4</t>
+  </si>
+  <si>
+    <t>15.6200*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>HSS 6x6x5/8</t>
+  </si>
+  <si>
+    <t>42.3000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>25-PR-149</t>
+  </si>
+  <si>
+    <t>A529-50</t>
+  </si>
+  <si>
+    <t>L 3x3x1/4</t>
+  </si>
+  <si>
+    <t>4.9000*(1+(0.0000/12))</t>
   </si>
   <si>
     <t>FB</t>
   </si>
   <si>
-    <t>A529-50</t>
-  </si>
-  <si>
-    <t>FB 3/8x10</t>
-  </si>
-  <si>
-    <t>20'</t>
-  </si>
-  <si>
-    <t>0.3750*(10.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>Intsel Steel West, LLC</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L 3x2x1/4</t>
-  </si>
-  <si>
-    <t>4.1000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>25-PR-139</t>
-  </si>
-  <si>
-    <t>L 2 1/2x2 1/2x1/4</t>
-  </si>
-  <si>
-    <t>25-PR-142</t>
-  </si>
-  <si>
-    <t>A36-36</t>
-  </si>
-  <si>
-    <t>L 4x3x1/4</t>
-  </si>
-  <si>
-    <t>5.8000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>L 4x3 1/2x3/8</t>
-  </si>
-  <si>
-    <t>9.1000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>L 4x4x3/8</t>
-  </si>
-  <si>
-    <t>9.8000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>L 6x4x3/8</t>
-  </si>
-  <si>
-    <t>12.3000*(1+(0.0000/12))</t>
-  </si>
-  <si>
     <t>FB 3/8x9</t>
   </si>
   <si>
     <t>0.3750*(9.0000)*((1*12)+0.0000)*.2836</t>
   </si>
   <si>
-    <t>25-PR-143</t>
-  </si>
-  <si>
-    <t>FB 5/8x4</t>
-  </si>
-  <si>
-    <t>0.6250*(4.0000)*((1*12)+0.0000)*.2836</t>
+    <t>FB 1/2x6</t>
+  </si>
+  <si>
+    <t>0.5000*(6.0000)*((1*12)+0.0000)*.2836</t>
   </si>
   <si>
     <t>PL</t>
@@ -319,22 +307,13 @@
     <t>0.3750*(96.0000)*((1*12)+0.0000)*.2836</t>
   </si>
   <si>
-    <t>PL 5/8x96</t>
-  </si>
-  <si>
-    <t>0.6250*(96.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>PL 7/8x96</t>
-  </si>
-  <si>
-    <t>0.8750*(96.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>PL 1x96</t>
-  </si>
-  <si>
-    <t>1.0000*(96.0000)*((1*12)+0.0000)*.2836</t>
+    <t>PL 1/2x96</t>
+  </si>
+  <si>
+    <t>0.5000*(96.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>25-PR-150</t>
   </si>
 </sst>
 </file>
@@ -435,7 +414,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AW24"/>
+  <dimension ref="A1:AW21"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -662,52 +641,55 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3013</v>
+        <v>2258</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>0.375</v>
       </c>
       <c r="L3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U3">
-        <v>4160.16</v>
+        <v>1349.25</v>
+      </c>
+      <c r="W3" s="1">
+        <v>45722</v>
       </c>
       <c r="X3" s="1">
-        <v>45707</v>
+        <v>45754</v>
       </c>
       <c r="Y3" s="1">
-        <v>45702</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>59</v>
+        <v>45713</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -721,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3013</v>
+        <v>2258</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -730,57 +712,60 @@
         <v>50</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>0.375</v>
       </c>
       <c r="L4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>60</v>
       </c>
-      <c r="P4">
-        <v>40</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
       <c r="U4">
-        <v>385.2</v>
+        <v>1349.25</v>
+      </c>
+      <c r="W4" s="1">
+        <v>45722</v>
       </c>
       <c r="X4" s="1">
-        <v>45712</v>
+        <v>45754</v>
       </c>
       <c r="Y4" s="1">
-        <v>45702</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>59</v>
+        <v>45713</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -798,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
         <v>62</v>
       </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
       <c r="P5">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U5">
-        <v>1349.25</v>
+        <v>1773.3</v>
       </c>
       <c r="W5" s="1">
         <v>45722</v>
@@ -828,21 +813,21 @@
         <v>45713</v>
       </c>
       <c r="AA5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -860,25 +845,25 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
         <v>62</v>
       </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
       <c r="P6">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U6">
-        <v>1349.25</v>
+        <v>1773.3</v>
       </c>
       <c r="W6" s="1">
         <v>45722</v>
@@ -890,24 +875,24 @@
         <v>45713</v>
       </c>
       <c r="AA6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2262</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -922,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
         <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>67</v>
       </c>
       <c r="P7">
         <v>46</v>
@@ -937,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U7">
-        <v>1773.3</v>
+        <v>3546.6</v>
       </c>
       <c r="W7" s="1">
         <v>45722</v>
@@ -952,136 +937,130 @@
         <v>45713</v>
       </c>
       <c r="AA7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>2262</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
       <c r="K8">
+        <v>3.5</v>
+      </c>
+      <c r="L8">
         <v>0.375</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U8">
-        <v>1773.3</v>
-      </c>
-      <c r="W8" s="1">
-        <v>45722</v>
+        <v>182</v>
       </c>
       <c r="X8" s="1">
-        <v>45754</v>
+        <v>45721</v>
       </c>
       <c r="Y8" s="1">
-        <v>45713</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>66</v>
+        <v>45716</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>2262</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
         <v>0.375</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U9">
-        <v>3546.6</v>
-      </c>
-      <c r="W9" s="1">
-        <v>45722</v>
+        <v>364</v>
       </c>
       <c r="X9" s="1">
-        <v>45754</v>
+        <v>45721</v>
       </c>
       <c r="Y9" s="1">
-        <v>45713</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>66</v>
+        <v>45716</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1090,878 +1069,701 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>0.375</v>
-      </c>
       <c r="K10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
         <v>72</v>
       </c>
       <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>40</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>73</v>
       </c>
-      <c r="P10">
-        <v>20</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>74</v>
-      </c>
       <c r="U10">
-        <v>765.72</v>
+        <v>820</v>
       </c>
       <c r="X10" s="1">
-        <v>45719</v>
+        <v>45726</v>
       </c>
       <c r="Y10" s="1">
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2501</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.375</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
         <v>76</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11">
+        <v>32</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="U11">
+        <v>634.24</v>
+      </c>
+      <c r="X11" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="U11">
-        <v>82</v>
-      </c>
-      <c r="X11" s="1">
-        <v>45719</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>45714</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2501</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0.375</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="J12">
-        <v>2.5</v>
-      </c>
-      <c r="K12">
-        <v>2.5</v>
-      </c>
-      <c r="L12">
-        <v>0.25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>60</v>
-      </c>
       <c r="P12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12">
+        <v>634.24</v>
+      </c>
+      <c r="X12" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="U12">
-        <v>1640</v>
-      </c>
-      <c r="X12" s="1">
-        <v>45719</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>45715</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2501</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>0.25</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U13">
-        <v>1276</v>
+        <v>624.8</v>
       </c>
       <c r="X13" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y13" s="1">
         <v>45721</v>
       </c>
-      <c r="Y13" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA13" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2501</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>0.625</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>3.5</v>
-      </c>
-      <c r="L14">
-        <v>0.375</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14">
+        <v>48</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>82</v>
       </c>
-      <c r="N14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14">
-        <v>20</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>86</v>
-      </c>
       <c r="U14">
-        <v>182</v>
+        <v>2030.4</v>
       </c>
       <c r="X14" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y14" s="1">
         <v>45721</v>
       </c>
-      <c r="Y14" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA14" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2501</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>0.625</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
         <v>81</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>3.5</v>
-      </c>
-      <c r="L15">
-        <v>0.375</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15">
+        <v>48</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>82</v>
       </c>
-      <c r="N15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15">
-        <v>40</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>86</v>
-      </c>
       <c r="U15">
-        <v>364</v>
+        <v>2030.4</v>
       </c>
       <c r="X15" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y15" s="1">
         <v>45721</v>
       </c>
-      <c r="Y15" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA15" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U16">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="X16" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y16" s="1">
         <v>45721</v>
       </c>
-      <c r="Y16" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA16" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>0.375</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17">
+        <v>459.432</v>
+      </c>
+      <c r="X17" s="1">
+        <v>45728</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="U17">
-        <v>492</v>
-      </c>
-      <c r="X17" s="1">
-        <v>45721</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>45716</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
       <c r="L18">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U18">
-        <v>984</v>
+        <v>612.576</v>
       </c>
       <c r="X18" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y18" s="1">
         <v>45721</v>
       </c>
-      <c r="Y18" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA18" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>0.375</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="P19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U19">
-        <v>689.148</v>
+        <v>2450.304</v>
       </c>
       <c r="X19" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y19" s="1">
         <v>45721</v>
       </c>
-      <c r="Y19" s="1">
-        <v>45716</v>
-      </c>
       <c r="AA19" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>96</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>93</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20">
-        <v>0.625</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>71</v>
-      </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U20">
-        <v>170.16</v>
+        <v>3267.072</v>
       </c>
       <c r="X20" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y20" s="1">
         <v>45721</v>
       </c>
-      <c r="Y20" s="1">
-        <v>45719</v>
-      </c>
       <c r="AA20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>0.375</v>
       </c>
       <c r="K21">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q21">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U21">
-        <v>4900.608</v>
+        <v>459.432</v>
       </c>
       <c r="X21" s="1">
+        <v>45726</v>
+      </c>
+      <c r="Y21" s="1">
         <v>45721</v>
       </c>
-      <c r="Y21" s="1">
-        <v>45719</v>
-      </c>
       <c r="AA21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22">
-        <v>0.625</v>
-      </c>
-      <c r="K22">
-        <v>96</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>240</v>
-      </c>
-      <c r="R22" t="s">
-        <v>102</v>
-      </c>
-      <c r="U22">
-        <v>4083.84</v>
-      </c>
-      <c r="X22" s="1">
-        <v>45721</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>45719</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23">
-        <v>0.875</v>
-      </c>
-      <c r="K23">
-        <v>96</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>240</v>
-      </c>
-      <c r="R23" t="s">
-        <v>104</v>
-      </c>
-      <c r="U23">
-        <v>11434.752</v>
-      </c>
-      <c r="X23" s="1">
-        <v>45721</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>45719</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>96</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" t="s">
-        <v>105</v>
-      </c>
-      <c r="O24" t="s">
-        <v>99</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>240</v>
-      </c>
-      <c r="R24" t="s">
-        <v>106</v>
-      </c>
-      <c r="U24">
-        <v>6534.144</v>
-      </c>
-      <c r="X24" s="1">
-        <v>45721</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>45719</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/material.xlsx
+++ b/material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165" count="453">
   <si>
     <t>po_number</t>
   </si>
@@ -163,6 +163,177 @@
     <t>boltID</t>
   </si>
   <si>
+    <t>25-PR-024</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A992</t>
+  </si>
+  <si>
+    <t>W 33x118</t>
+  </si>
+  <si>
+    <t>42' - 4"</t>
+  </si>
+  <si>
+    <t>118.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>Steel Dynamics, Inc</t>
+  </si>
+  <si>
+    <t>W 12x96</t>
+  </si>
+  <si>
+    <t>27' - 8"</t>
+  </si>
+  <si>
+    <t>96.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>29'</t>
+  </si>
+  <si>
+    <t>42' - 8"</t>
+  </si>
+  <si>
+    <t>W 21x55</t>
+  </si>
+  <si>
+    <t>43'</t>
+  </si>
+  <si>
+    <t>55.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 14x99</t>
+  </si>
+  <si>
+    <t>53'</t>
+  </si>
+  <si>
+    <t>99.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 14x193</t>
+  </si>
+  <si>
+    <t>58'</t>
+  </si>
+  <si>
+    <t>193.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>57'</t>
+  </si>
+  <si>
+    <t>35' - 4"</t>
+  </si>
+  <si>
+    <t>W 14x82</t>
+  </si>
+  <si>
+    <t>46' - 8"</t>
+  </si>
+  <si>
+    <t>82.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 14x22</t>
+  </si>
+  <si>
+    <t>27' - 4"</t>
+  </si>
+  <si>
+    <t>22.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>32'</t>
+  </si>
+  <si>
+    <t>25-PR-031</t>
+  </si>
+  <si>
+    <t>W 10x49</t>
+  </si>
+  <si>
+    <t>47' - 8"</t>
+  </si>
+  <si>
+    <t>49.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 10x60</t>
+  </si>
+  <si>
+    <t>60.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 16x26</t>
+  </si>
+  <si>
+    <t>45' - 4"</t>
+  </si>
+  <si>
+    <t>26.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>53' - 4"</t>
+  </si>
+  <si>
+    <t>60' - 4"</t>
+  </si>
+  <si>
+    <t>W 16x36</t>
+  </si>
+  <si>
+    <t>44' - 8"</t>
+  </si>
+  <si>
+    <t>36.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 18x35</t>
+  </si>
+  <si>
+    <t>60'</t>
+  </si>
+  <si>
+    <t>35.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 18x40</t>
+  </si>
+  <si>
+    <t>35'</t>
+  </si>
+  <si>
+    <t>40.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 18x50</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>50.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 18x65</t>
+  </si>
+  <si>
+    <t>65.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>W 21x68</t>
+  </si>
+  <si>
+    <t>68.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
     <t>25-PR-104</t>
   </si>
   <si>
@@ -193,9 +364,6 @@
     <t xml:space="preserve">HSS 10.000x0.375 </t>
   </si>
   <si>
-    <t>35'</t>
-  </si>
-  <si>
     <t>38.5500*(1+(0.0000/12))</t>
   </si>
   <si>
@@ -205,115 +373,142 @@
     <t>46'</t>
   </si>
   <si>
-    <t>25-PR-142</t>
+    <t>25-PR-149</t>
   </si>
   <si>
     <t>STK</t>
   </si>
   <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>A529-50</t>
+  </si>
+  <si>
+    <t>FB 3/8x9</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>0.3750*(9.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>Intsel Steel West, LLC</t>
+  </si>
+  <si>
+    <t>25-PR-152</t>
+  </si>
+  <si>
+    <t>W 40x199</t>
+  </si>
+  <si>
+    <t>36'</t>
+  </si>
+  <si>
+    <t>199.0000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>25-PR-161</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>A1011</t>
+  </si>
+  <si>
+    <t>PL 1/8x60</t>
+  </si>
+  <si>
+    <t>120"</t>
+  </si>
+  <si>
+    <t>0.1250*(60.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>FB 1/8x10</t>
+  </si>
+  <si>
+    <t>0.1250*(10.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>25-PR-163</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>3 1/2 in. dia. STD Pipe</t>
+  </si>
+  <si>
+    <t>21'</t>
+  </si>
+  <si>
+    <t>9.1100*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>IMS Steel</t>
+  </si>
+  <si>
+    <t>25-PR-166</t>
+  </si>
+  <si>
+    <t>HSS 6x6x5/8</t>
+  </si>
+  <si>
+    <t>42.3000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>HSS 6x6x3/8</t>
+  </si>
+  <si>
+    <t>27.4800*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>40'</t>
+  </si>
+  <si>
+    <t>HSS 4x4x3/8</t>
+  </si>
+  <si>
+    <t>19.8200*(1+(0.0000/12))</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
     <t>A36-36</t>
   </si>
   <si>
-    <t>L 4x3 1/2x3/8</t>
-  </si>
-  <si>
-    <t>20'</t>
-  </si>
-  <si>
-    <t>9.1000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>40'</t>
-  </si>
-  <si>
-    <t>25-PR-147</t>
-  </si>
-  <si>
-    <t>L 3x2x1/4</t>
-  </si>
-  <si>
-    <t>4.1000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>25-PR-148</t>
-  </si>
-  <si>
-    <t>HSS 4x4x3/8</t>
-  </si>
-  <si>
-    <t>32'</t>
-  </si>
-  <si>
-    <t>19.8200*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>Intsel Steel West, LLC</t>
-  </si>
-  <si>
-    <t>HSS 5x5x1/4</t>
-  </si>
-  <si>
-    <t>15.6200*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>HSS 6x6x5/8</t>
-  </si>
-  <si>
-    <t>42.3000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>25-PR-149</t>
-  </si>
-  <si>
-    <t>A529-50</t>
-  </si>
-  <si>
-    <t>L 3x3x1/4</t>
-  </si>
-  <si>
-    <t>4.9000*(1+(0.0000/12))</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>FB 3/8x9</t>
-  </si>
-  <si>
-    <t>0.3750*(9.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>FB 1/2x6</t>
-  </si>
-  <si>
-    <t>0.5000*(6.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>A572-50</t>
-  </si>
-  <si>
-    <t>PL 3/8x96</t>
-  </si>
-  <si>
-    <t>240"</t>
-  </si>
-  <si>
-    <t>0.3750*(96.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>PL 1/2x96</t>
-  </si>
-  <si>
-    <t>0.5000*(96.0000)*((1*12)+0.0000)*.2836</t>
-  </si>
-  <si>
-    <t>25-PR-150</t>
+    <t>L 8x4x1/2</t>
+  </si>
+  <si>
+    <t>19.6000*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>FB 3/8x4</t>
+  </si>
+  <si>
+    <t>0.3750*(4.0000)*((1*12)+0.0000)*.2836</t>
+  </si>
+  <si>
+    <t>25-PR-167</t>
+  </si>
+  <si>
+    <t>HSS 8x6x1/2</t>
+  </si>
+  <si>
+    <t>42.0500*(1+(0.0000/12))</t>
+  </si>
+  <si>
+    <t>Brown-Strauss</t>
+  </si>
+  <si>
+    <t>W 8x15</t>
+  </si>
+  <si>
+    <t>15.0000*(1+(0.0000/12))</t>
   </si>
 </sst>
 </file>
@@ -414,7 +609,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AW21"/>
+  <dimension ref="A1:AW58"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -579,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3012</v>
+        <v>2502</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -591,13 +786,13 @@
         <v>50</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="L2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>51</v>
@@ -609,39 +804,42 @@
         <v>53</v>
       </c>
       <c r="P2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
         <v>54</v>
       </c>
       <c r="U2">
-        <v>1825.92</v>
+        <v>9990.666</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45718</v>
       </c>
       <c r="X2" s="1">
-        <v>45728</v>
+        <v>45753</v>
       </c>
       <c r="Y2" s="1">
-        <v>45700</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+        <v>45670</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2258</v>
+        <v>3012</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -650,60 +848,60 @@
         <v>50</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.375</v>
+        <v>96</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3">
-        <v>35</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
       <c r="U3">
-        <v>1349.25</v>
+        <v>2656</v>
       </c>
       <c r="W3" s="1">
-        <v>45722</v>
+        <v>45683</v>
       </c>
       <c r="X3" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="Y3" s="1">
-        <v>45713</v>
+        <v>45670</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2258</v>
+        <v>3012</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -712,184 +910,184 @@
         <v>50</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>0.375</v>
+        <v>96</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
         <v>57</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4">
-        <v>35</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
       <c r="U4">
-        <v>1349.25</v>
+        <v>2656</v>
       </c>
       <c r="W4" s="1">
-        <v>45722</v>
+        <v>45683</v>
       </c>
       <c r="X4" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="Y4" s="1">
-        <v>45713</v>
+        <v>45670</v>
       </c>
       <c r="AA4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>0.375</v>
+        <v>96</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
         <v>57</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5">
-        <v>46</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
       <c r="U5">
-        <v>1773.3</v>
+        <v>5312</v>
       </c>
       <c r="W5" s="1">
-        <v>45722</v>
+        <v>45683</v>
       </c>
       <c r="X5" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="Y5" s="1">
-        <v>45713</v>
+        <v>45670</v>
       </c>
       <c r="AA5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>0.375</v>
+        <v>96</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>58</v>
       </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6">
-        <v>46</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>60</v>
-      </c>
       <c r="U6">
-        <v>1773.3</v>
+        <v>5568</v>
       </c>
       <c r="W6" s="1">
-        <v>45722</v>
+        <v>45683</v>
       </c>
       <c r="X6" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="Y6" s="1">
-        <v>45713</v>
+        <v>45670</v>
       </c>
       <c r="AA6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -898,355 +1096,370 @@
         <v>50</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>0.375</v>
+        <v>96</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7">
-        <v>46</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>60</v>
-      </c>
       <c r="U7">
-        <v>3546.6</v>
+        <v>8192</v>
       </c>
       <c r="W7" s="1">
-        <v>45722</v>
+        <v>45683</v>
       </c>
       <c r="X7" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="Y7" s="1">
-        <v>45713</v>
+        <v>45670</v>
       </c>
       <c r="AA7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3012</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>55</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8">
+        <v>43</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>63</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>0.375</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8">
-        <v>20</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>69</v>
-      </c>
       <c r="U8">
-        <v>182</v>
+        <v>14190</v>
+      </c>
+      <c r="W8" s="1">
+        <v>45690</v>
       </c>
       <c r="X8" s="1">
-        <v>45721</v>
+        <v>45744</v>
       </c>
       <c r="Y8" s="1">
-        <v>45716</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+        <v>45670</v>
+      </c>
+      <c r="AA8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3012</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
         <v>65</v>
       </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>3.5</v>
-      </c>
-      <c r="L9">
-        <v>0.375</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="P9">
+        <v>53</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>66</v>
       </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9">
-        <v>40</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>69</v>
-      </c>
       <c r="U9">
-        <v>364</v>
+        <v>5247</v>
+      </c>
+      <c r="W9" s="1">
+        <v>45676</v>
       </c>
       <c r="X9" s="1">
-        <v>45721</v>
+        <v>45744</v>
       </c>
       <c r="Y9" s="1">
-        <v>45716</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+        <v>45670</v>
+      </c>
+      <c r="AA9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3012</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
         <v>64</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
         <v>65</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.25</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="P10">
+        <v>53</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>66</v>
       </c>
-      <c r="N10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10">
-        <v>40</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>73</v>
-      </c>
       <c r="U10">
-        <v>820</v>
+        <v>5247</v>
+      </c>
+      <c r="W10" s="1">
+        <v>45676</v>
       </c>
       <c r="X10" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y10" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+        <v>45670</v>
+      </c>
+      <c r="AA10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2501</v>
+        <v>3012</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="L11">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U11">
-        <v>634.24</v>
+        <v>44776</v>
+      </c>
+      <c r="W11" s="1">
+        <v>45676</v>
       </c>
       <c r="X11" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y11" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>2501</v>
+        <v>3012</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="L12">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12">
         <v>57</v>
       </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12">
-        <v>32</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U12">
-        <v>634.24</v>
+        <v>44004</v>
+      </c>
+      <c r="W12" s="1">
+        <v>45676</v>
       </c>
       <c r="X12" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y12" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>2501</v>
+        <v>3012</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1255,515 +1468,2788 @@
         <v>50</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="L13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U13">
-        <v>624.8</v>
+        <v>6819.333</v>
+      </c>
+      <c r="W13" s="1">
+        <v>45676</v>
       </c>
       <c r="X13" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y13" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>2501</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="L14">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U14">
-        <v>2030.4</v>
+        <v>7653.334</v>
+      </c>
+      <c r="W14" s="1">
+        <v>45676</v>
       </c>
       <c r="X14" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y14" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>2501</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L15">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P15">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U15">
-        <v>2030.4</v>
+        <v>6013.33</v>
+      </c>
+      <c r="W15" s="1">
+        <v>45704</v>
       </c>
       <c r="X15" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y15" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2501</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="U16">
-        <v>196</v>
+        <v>6336</v>
+      </c>
+      <c r="W16" s="1">
+        <v>45704</v>
       </c>
       <c r="X16" s="1">
-        <v>45726</v>
+        <v>45744</v>
       </c>
       <c r="Y16" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>78</v>
+        <v>45670</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2501</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>0.375</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="P17">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U17">
-        <v>459.432</v>
+        <v>2335.667</v>
+      </c>
+      <c r="W17" s="1">
+        <v>45697</v>
       </c>
       <c r="X17" s="1">
-        <v>45728</v>
+        <v>45737</v>
       </c>
       <c r="Y17" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>78</v>
+        <v>45673</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2501</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="P18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="U18">
-        <v>612.576</v>
+        <v>2335.667</v>
+      </c>
+      <c r="W18" s="1">
+        <v>45697</v>
       </c>
       <c r="X18" s="1">
-        <v>45726</v>
+        <v>45737</v>
       </c>
       <c r="Y18" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>78</v>
+        <v>45673</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2501</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>0.375</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q19">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="U19">
-        <v>2450.304</v>
+        <v>14014.002</v>
+      </c>
+      <c r="W19" s="1">
+        <v>45697</v>
       </c>
       <c r="X19" s="1">
-        <v>45726</v>
+        <v>45737</v>
       </c>
       <c r="Y19" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>78</v>
+        <v>45673</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2501</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q20">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="R20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="U20">
-        <v>3267.072</v>
+        <v>16349.669</v>
+      </c>
+      <c r="W20" s="1">
+        <v>45697</v>
       </c>
       <c r="X20" s="1">
-        <v>45726</v>
+        <v>45737</v>
       </c>
       <c r="Y20" s="1">
-        <v>45721</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>78</v>
+        <v>45673</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2501</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>60</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21">
+        <v>46</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21">
+        <v>2800</v>
+      </c>
+      <c r="W21" s="1">
+        <v>45697</v>
+      </c>
+      <c r="X21" s="1">
+        <v>45737</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2501</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22">
+        <v>46</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22">
+        <v>25200</v>
+      </c>
+      <c r="W22" s="1">
+        <v>45697</v>
+      </c>
+      <c r="X22" s="1">
+        <v>45737</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2502</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23">
+        <v>45</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23">
+        <v>14144.004</v>
+      </c>
+      <c r="W23" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X23" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>3012</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24">
+        <v>45</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s">
+        <v>87</v>
+      </c>
+      <c r="U24">
+        <v>1178.667</v>
+      </c>
+      <c r="W24" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X24" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>3012</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25">
+        <v>53</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>87</v>
+      </c>
+      <c r="U25">
+        <v>2773.334</v>
+      </c>
+      <c r="W25" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X25" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>2502</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26">
+        <v>53</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26">
+        <v>13866.67</v>
+      </c>
+      <c r="W26" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X26" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>2502</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27">
+        <v>60</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27">
+        <v>37648.008</v>
+      </c>
+      <c r="W27" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X27" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>3012</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28">
+        <v>60</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>87</v>
+      </c>
+      <c r="U28">
+        <v>12549.336</v>
+      </c>
+      <c r="W28" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X28" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>3012</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>36</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29">
+        <v>44</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29">
+        <v>16080</v>
+      </c>
+      <c r="W29" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X29" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>3012</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>36</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30">
+        <v>60</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30">
+        <v>30408</v>
+      </c>
+      <c r="W30" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X30" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2502</v>
+      </c>
+      <c r="H31">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31">
+        <v>60</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>95</v>
+      </c>
+      <c r="U31">
+        <v>132300</v>
+      </c>
+      <c r="W31" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X31" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2502</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32">
+        <v>35</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>98</v>
+      </c>
+      <c r="U32">
+        <v>8400</v>
+      </c>
+      <c r="W32" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X32" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2502</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>40</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33">
+        <v>60</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33">
+        <v>19306.664</v>
+      </c>
+      <c r="W33" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X33" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>2502</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" t="s">
         <v>99</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21">
+      <c r="O34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>30</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>101</v>
+      </c>
+      <c r="U34">
+        <v>9000</v>
+      </c>
+      <c r="W34" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X34" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>2502</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>65</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35">
+        <v>35</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s">
+        <v>103</v>
+      </c>
+      <c r="U35">
+        <v>9186.668</v>
+      </c>
+      <c r="W35" s="1">
+        <v>45704</v>
+      </c>
+      <c r="X35" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>3012</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>68</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" t="s">
+        <v>104</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36">
+        <v>42</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36">
+        <v>11605.332</v>
+      </c>
+      <c r="W36" s="1">
+        <v>45690</v>
+      </c>
+      <c r="X36" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>3012</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>21</v>
+      </c>
+      <c r="K37">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" t="s">
+        <v>57</v>
+      </c>
+      <c r="P37">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37" t="s">
+        <v>105</v>
+      </c>
+      <c r="U37">
+        <v>7525.332</v>
+      </c>
+      <c r="W37" s="1">
+        <v>45690</v>
+      </c>
+      <c r="X37" s="1">
+        <v>45744</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>3012</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21">
+      <c r="I38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>0.25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" t="s">
+        <v>109</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38">
+        <v>48</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>111</v>
+      </c>
+      <c r="U38">
+        <v>1825.92</v>
+      </c>
+      <c r="X38" s="1">
+        <v>45728</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>45700</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2258</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
         <v>0.375</v>
       </c>
-      <c r="K21">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>114</v>
+      </c>
+      <c r="N39" t="s">
+        <v>115</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39">
+        <v>35</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>116</v>
+      </c>
+      <c r="U39">
+        <v>1349.25</v>
+      </c>
+      <c r="W39" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X39" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2258</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0.375</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N40" t="s">
+        <v>115</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40">
+        <v>35</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>116</v>
+      </c>
+      <c r="U40">
+        <v>1349.25</v>
+      </c>
+      <c r="W40" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X40" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2262</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>0.375</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" t="s">
+        <v>115</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41">
+        <v>46</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>116</v>
+      </c>
+      <c r="U41">
+        <v>1773.3</v>
+      </c>
+      <c r="W41" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X41" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2262</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>0.375</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>114</v>
+      </c>
+      <c r="N42" t="s">
+        <v>115</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42">
+        <v>46</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>116</v>
+      </c>
+      <c r="U42">
+        <v>1773.3</v>
+      </c>
+      <c r="W42" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X42" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2262</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0.375</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>114</v>
+      </c>
+      <c r="N43" t="s">
+        <v>115</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43">
+        <v>46</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>116</v>
+      </c>
+      <c r="U43">
+        <v>3546.6</v>
+      </c>
+      <c r="W43" s="1">
+        <v>45722</v>
+      </c>
+      <c r="X43" s="1">
+        <v>45754</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44">
+        <v>0.375</v>
+      </c>
+      <c r="K44">
         <v>9</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44">
         <v>20</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>89</v>
-      </c>
-      <c r="U21">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>125</v>
+      </c>
+      <c r="U44">
         <v>459.432</v>
       </c>
-      <c r="X21" s="1">
-        <v>45726</v>
-      </c>
-      <c r="Y21" s="1">
+      <c r="X44" s="1">
+        <v>45728</v>
+      </c>
+      <c r="Y44" s="1">
         <v>45721</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>55</v>
+      <c r="AA44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2259</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45">
+        <v>199</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45" t="s">
+        <v>129</v>
+      </c>
+      <c r="P45">
+        <v>36</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U45">
+        <v>7164</v>
+      </c>
+      <c r="X45" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45722</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46">
+        <v>0.125</v>
+      </c>
+      <c r="K46">
+        <v>60</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" t="s">
+        <v>134</v>
+      </c>
+      <c r="O46" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>120</v>
+      </c>
+      <c r="R46" t="s">
+        <v>136</v>
+      </c>
+      <c r="U46">
+        <v>510.48</v>
+      </c>
+      <c r="X46" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45728</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47">
+        <v>0.125</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47">
+        <v>20</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>138</v>
+      </c>
+      <c r="U47">
+        <v>170.16</v>
+      </c>
+      <c r="X47" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45728</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2501</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48">
+        <v>3.5</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O48" t="s">
+        <v>142</v>
+      </c>
+      <c r="P48">
+        <v>21</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>143</v>
+      </c>
+      <c r="U48">
+        <v>191.31</v>
+      </c>
+      <c r="X48" s="1">
+        <v>45736</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45728</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2502</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>18</v>
+      </c>
+      <c r="K49">
+        <v>35</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N49" t="s">
+        <v>93</v>
+      </c>
+      <c r="O49" t="s">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>95</v>
+      </c>
+      <c r="U49">
+        <v>1050</v>
+      </c>
+      <c r="X49" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2501</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>0.625</v>
+      </c>
+      <c r="M50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N50" t="s">
+        <v>146</v>
+      </c>
+      <c r="O50" t="s">
+        <v>110</v>
+      </c>
+      <c r="P50">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>147</v>
+      </c>
+      <c r="U50">
+        <v>2030.4</v>
+      </c>
+      <c r="X50" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>2501</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>0.375</v>
+      </c>
+      <c r="M51" t="s">
+        <v>114</v>
+      </c>
+      <c r="N51" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" t="s">
+        <v>110</v>
+      </c>
+      <c r="P51">
+        <v>48</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>149</v>
+      </c>
+      <c r="U51">
+        <v>1319.04</v>
+      </c>
+      <c r="X51" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>2501</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>0.375</v>
+      </c>
+      <c r="M52" t="s">
+        <v>114</v>
+      </c>
+      <c r="N52" t="s">
+        <v>148</v>
+      </c>
+      <c r="O52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52">
+        <v>40</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>149</v>
+      </c>
+      <c r="U52">
+        <v>4396.8</v>
+      </c>
+      <c r="X52" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>2501</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>0.375</v>
+      </c>
+      <c r="M53" t="s">
+        <v>114</v>
+      </c>
+      <c r="N53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O53" t="s">
+        <v>150</v>
+      </c>
+      <c r="P53">
+        <v>40</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>152</v>
+      </c>
+      <c r="U53">
+        <v>792.8</v>
+      </c>
+      <c r="X53" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>2501</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>0.375</v>
+      </c>
+      <c r="M54" t="s">
+        <v>114</v>
+      </c>
+      <c r="N54" t="s">
+        <v>151</v>
+      </c>
+      <c r="O54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54">
+        <v>20</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>152</v>
+      </c>
+      <c r="U54">
+        <v>396.4</v>
+      </c>
+      <c r="X54" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>0.5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>154</v>
+      </c>
+      <c r="N55" t="s">
+        <v>155</v>
+      </c>
+      <c r="O55" t="s">
+        <v>150</v>
+      </c>
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>156</v>
+      </c>
+      <c r="U55">
+        <v>784</v>
+      </c>
+      <c r="X55" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56">
+        <v>0.375</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>122</v>
+      </c>
+      <c r="N56" t="s">
+        <v>157</v>
+      </c>
+      <c r="O56" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56">
+        <v>20</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>158</v>
+      </c>
+      <c r="U56">
+        <v>2041.92</v>
+      </c>
+      <c r="X56" s="1">
+        <v>45733</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2501</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>0.5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>114</v>
+      </c>
+      <c r="N57" t="s">
+        <v>160</v>
+      </c>
+      <c r="O57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P57">
+        <v>30</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>161</v>
+      </c>
+      <c r="U57">
+        <v>1261.5</v>
+      </c>
+      <c r="X57" s="1">
+        <v>45734</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2502</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>15</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" t="s">
+        <v>163</v>
+      </c>
+      <c r="O58" t="s">
+        <v>150</v>
+      </c>
+      <c r="P58">
+        <v>40</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>164</v>
+      </c>
+      <c r="U58">
+        <v>600</v>
+      </c>
+      <c r="X58" s="1">
+        <v>45734</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45729</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
